--- a/test_cases/PE-53/TC-5301.xlsx
+++ b/test_cases/PE-53/TC-5301.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A258166-3970-4231-B4BB-34E7429E7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520AD7A-535F-41E4-BA08-27DA9F683FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -152,39 +152,9 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Title = Mr</t>
-  </si>
-  <si>
-    <t>First Name = Leandro</t>
-  </si>
-  <si>
-    <t>Last Name = Rodriguez</t>
-  </si>
-  <si>
     <t>Email = lean31@gmail.com</t>
   </si>
   <si>
-    <t>Company = Google</t>
-  </si>
-  <si>
-    <t>Adress = entre independencia y Chile</t>
-  </si>
-  <si>
-    <t>City = Quilmes</t>
-  </si>
-  <si>
-    <t>State = Buenos Aires</t>
-  </si>
-  <si>
-    <t>Postal = 6435</t>
-  </si>
-  <si>
-    <t>Country = Argentina</t>
-  </si>
-  <si>
-    <t>Additional Information =  I like music</t>
-  </si>
-  <si>
     <t>User created with all data</t>
   </si>
   <si>
@@ -219,6 +189,12 @@
   </si>
   <si>
     <t>Click submit</t>
+  </si>
+  <si>
+    <t>User data must be different to test data</t>
+  </si>
+  <si>
+    <t>User must be logged</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,37 +1208,41 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1274,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1283,107 +1263,119 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D14" s="4">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="4">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>3</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="4">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>4</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="4">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="G25" s="36" t="s">
         <v>11</v>
       </c>
@@ -1396,17 +1388,6 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:14" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="39" t="s">
         <v>15</v>
       </c>
@@ -1443,17 +1424,6 @@
       <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="31"/>
       <c r="G28" s="14" t="s">
         <v>25</v>
       </c>
@@ -1480,17 +1450,6 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
-        <v>1</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="35"/>
       <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
@@ -1515,17 +1474,6 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>2</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="35"/>
       <c r="G30" s="16" t="s">
         <v>29</v>
       </c>
@@ -1549,18 +1497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <v>3</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="35"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="16" t="s">
         <v>29</v>
       </c>
@@ -1585,17 +1522,6 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>4</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="35"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
@@ -1605,12 +1531,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
+    <row r="33" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
       <c r="H33" s="3"/>
       <c r="I33" s="5"/>
@@ -1620,12 +1541,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
+    <row r="34" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="5"/>
       <c r="H34" s="3"/>
       <c r="I34" s="5"/>
@@ -1635,8 +1551,8 @@
       <c r="M34" s="5"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="40" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1570,7 @@
       </c>
       <c r="N36" s="40"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
@@ -1664,7 +1580,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
@@ -1674,7 +1590,7 @@
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
@@ -1684,7 +1600,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
@@ -1694,7 +1610,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
